--- a/res/体检项目关联.xlsx
+++ b/res/体检项目关联.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tools\oh\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB94192F-4E4A-466D-A72A-D0C68458927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55943892-7D7D-464A-BB7A-D608B4070D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8442" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8428" uniqueCount="850">
   <si>
     <t>title_code</t>
   </si>
@@ -2047,9 +2047,6 @@
     <t>尿β2微球蛋白或尿视黄醇结合蛋白、骨密度。</t>
   </si>
   <si>
-    <t>尿β2微球蛋白或尿视黄醇结合蛋白</t>
-  </si>
-  <si>
     <t>骨密度</t>
   </si>
   <si>
@@ -2140,9 +2137,6 @@
     <t>心肌酶谱、肌钙蛋白。</t>
   </si>
   <si>
-    <t>肌钙蛋白</t>
-  </si>
-  <si>
     <t>头颅CT或MRI、脑电图。</t>
   </si>
   <si>
@@ -2155,9 +2149,6 @@
     <t>视野、神经一肌电图。</t>
   </si>
   <si>
-    <t>神经一肌电图</t>
-  </si>
-  <si>
     <t>神经肌电图。</t>
   </si>
   <si>
@@ -2317,9 +2308,6 @@
     <t>脑电图、肝脾B超、尿硫氰酸盐。</t>
   </si>
   <si>
-    <t>尿硫氰酸盐</t>
-  </si>
-  <si>
     <t>肝肾B超。</t>
   </si>
   <si>
@@ -2365,9 +2353,6 @@
     <t>有过敏史或可疑有过敏体质的受检者可选择下列项目：肺弥散功能、非特异性支气管激发试验、血清总IgE。</t>
   </si>
   <si>
-    <t>有过敏史或可疑有过敏体质的受检者可选择下列项目：肺弥散功能</t>
-  </si>
-  <si>
     <t>肺弥散功能、变应原皮肤试验、抗原特异性IgE抗体、变应原支气管激发试验。</t>
   </si>
   <si>
@@ -2383,9 +2368,6 @@
     <t>有过敏史或可疑有过敏体质的受检者可做非特异性气管激发试验（气道高反应性激发试验）。</t>
   </si>
   <si>
-    <t>有过敏史或可疑有过敏体质的受检者可做非特异性气管激发试验（气道高反应性激发试验）</t>
-  </si>
-  <si>
     <t>肺弥散功能、血气分析。</t>
   </si>
   <si>
@@ -2404,9 +2386,6 @@
     <t>纯音骨导听阈测试</t>
   </si>
   <si>
-    <t>听觉诱发电反应测听。注：听力测试应在受试者脱离噪声环境48h后进行</t>
-  </si>
-  <si>
     <t>声导抗（鼓膜无破裂者）、耳声发射、听觉诱发电反应测听、40Hz电反应测听；</t>
   </si>
   <si>
@@ -2422,9 +2401,6 @@
     <t>根据体检情况，可选择性进行下列试验：冷水复温试验、神经肌电图、指端振动觉、指端温度觉。</t>
   </si>
   <si>
-    <t>根据体检情况，可选择性进行下列试验：冷水复温试验</t>
-  </si>
-  <si>
     <t>指端振动觉</t>
   </si>
   <si>
@@ -2434,9 +2410,6 @@
     <t>冷水复温试验(无症状者)、神经肌电图、指端振动觉、指端温度觉。</t>
   </si>
   <si>
-    <t>冷水复温试验(无症状者)</t>
-  </si>
-  <si>
     <t>有甲亢病史可检查血清游离甲状腺素（FT4）、血清游离三碘甲腺原氨酸（FT3）、促甲状腺激素（TSH）。</t>
   </si>
   <si>
@@ -2449,24 +2422,9 @@
     <t>促甲状腺激素（TSH）</t>
   </si>
   <si>
-    <t>必要时进行作业场所现场调查。</t>
-  </si>
-  <si>
-    <t>必要时进行作业场所现场调查</t>
-  </si>
-  <si>
-    <t>根据症状体征确定增加X射线摄片部位。</t>
-  </si>
-  <si>
-    <t>根据症状体征确定增加X射线摄片部位</t>
-  </si>
-  <si>
     <t>病毒性肝炎血清标志物</t>
   </si>
   <si>
-    <t>布鲁菌素皮内试验(Burnets反应)</t>
-  </si>
-  <si>
     <t>细菌培养</t>
   </si>
   <si>
@@ -2488,9 +2446,6 @@
     <t>脑电图(有晕厥史者)、动态心电图、心脏超声检查。</t>
   </si>
   <si>
-    <t>脑电图(有晕厥史者)</t>
-  </si>
-  <si>
     <t>动态心电图</t>
   </si>
   <si>
@@ -2500,9 +2455,6 @@
     <t>脑电图(有眩晕或晕厥史者)、动态心电图、心脏超声检查。</t>
   </si>
   <si>
-    <t>脑电图(有眩晕或晕厥史者)</t>
-  </si>
-  <si>
     <t>痰结核菌涂片或分枝杆菌培养</t>
   </si>
   <si>
@@ -2545,9 +2497,6 @@
     <t>声导抗（鼓室导抗图，同侧和对侧镫骨肌反射阈）</t>
   </si>
   <si>
-    <t>耳声发射（畸变产物耳声发射，或瞬态诱发耳声发射）</t>
-  </si>
-  <si>
     <t>a)症状询问：重点询问神经精神症状，如：头痛、头</t>
   </si>
   <si>
@@ -2578,9 +2527,6 @@
     <t>脑CT</t>
   </si>
   <si>
-    <t>骨和关节X射线摄片(外科检查发现的病患关节)</t>
-  </si>
-  <si>
     <t>细菌培养、补体结合试验、布鲁菌素皮内试验、尿常规、肝功能、心电图、脑CT</t>
   </si>
   <si>
@@ -2609,6 +2555,42 @@
   </si>
   <si>
     <t>鼻窦CT或MRI</t>
+  </si>
+  <si>
+    <t>神经肌电图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺弥散功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非特异性支气管激发试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听觉诱发电反应测听</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷水复温试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨和关节X射线摄片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑电图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳声发射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁菌素皮内试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23284,10 +23266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259745F9-C977-46FD-84AF-3B86878BC2F1}">
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="K288" sqref="K288"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23628,7 +23610,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="F15" t="s">
         <v>659</v>
@@ -23792,7 +23774,7 @@
         <v>400</v>
       </c>
       <c r="F22" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="G22" t="s">
         <v>655</v>
@@ -23815,7 +23797,7 @@
         <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="G23" t="s">
         <v>656</v>
@@ -23838,7 +23820,7 @@
         <v>400</v>
       </c>
       <c r="F24" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="G24" t="s">
         <v>665</v>
@@ -23979,7 +23961,7 @@
         <v>670</v>
       </c>
       <c r="G30" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -24002,7 +23984,7 @@
         <v>670</v>
       </c>
       <c r="G31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -24022,10 +24004,10 @@
         <v>407</v>
       </c>
       <c r="F32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -24045,7 +24027,7 @@
         <v>407</v>
       </c>
       <c r="F33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G33" t="s">
         <v>44</v>
@@ -24068,7 +24050,7 @@
         <v>408</v>
       </c>
       <c r="F34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -24091,7 +24073,7 @@
         <v>408</v>
       </c>
       <c r="F35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G35" t="s">
         <v>141</v>
@@ -24114,7 +24096,7 @@
         <v>410</v>
       </c>
       <c r="F36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -24137,7 +24119,7 @@
         <v>411</v>
       </c>
       <c r="F37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -24160,10 +24142,10 @@
         <v>411</v>
       </c>
       <c r="F38" t="s">
+        <v>675</v>
+      </c>
+      <c r="G38" t="s">
         <v>676</v>
-      </c>
-      <c r="G38" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -24183,10 +24165,10 @@
         <v>411</v>
       </c>
       <c r="F39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G39" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -24206,10 +24188,10 @@
         <v>411</v>
       </c>
       <c r="F40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -24229,7 +24211,7 @@
         <v>411</v>
       </c>
       <c r="F41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -24252,10 +24234,10 @@
         <v>411</v>
       </c>
       <c r="F42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -24275,10 +24257,10 @@
         <v>412</v>
       </c>
       <c r="F43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -24298,10 +24280,10 @@
         <v>414</v>
       </c>
       <c r="F44" t="s">
+        <v>681</v>
+      </c>
+      <c r="G44" t="s">
         <v>682</v>
-      </c>
-      <c r="G44" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -24321,10 +24303,10 @@
         <v>414</v>
       </c>
       <c r="F45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -24344,10 +24326,10 @@
         <v>414</v>
       </c>
       <c r="F46" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -24367,7 +24349,7 @@
         <v>417</v>
       </c>
       <c r="F47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G47" t="s">
         <v>651</v>
@@ -24390,10 +24372,10 @@
         <v>417</v>
       </c>
       <c r="F48" t="s">
+        <v>685</v>
+      </c>
+      <c r="G48" t="s">
         <v>686</v>
-      </c>
-      <c r="G48" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -24413,7 +24395,7 @@
         <v>417</v>
       </c>
       <c r="F49" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G49" t="s">
         <v>66</v>
@@ -24436,10 +24418,10 @@
         <v>418</v>
       </c>
       <c r="F50" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G50" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -24459,7 +24441,7 @@
         <v>418</v>
       </c>
       <c r="F51" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G51" t="s">
         <v>651</v>
@@ -24482,10 +24464,10 @@
         <v>420</v>
       </c>
       <c r="F52" t="s">
+        <v>688</v>
+      </c>
+      <c r="G52" t="s">
         <v>689</v>
-      </c>
-      <c r="G52" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -24505,7 +24487,7 @@
         <v>421</v>
       </c>
       <c r="F53" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G53" t="s">
         <v>44</v>
@@ -24528,10 +24510,10 @@
         <v>421</v>
       </c>
       <c r="F54" t="s">
+        <v>690</v>
+      </c>
+      <c r="G54" t="s">
         <v>691</v>
-      </c>
-      <c r="G54" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -24551,10 +24533,10 @@
         <v>423</v>
       </c>
       <c r="F55" t="s">
+        <v>692</v>
+      </c>
+      <c r="G55" t="s">
         <v>693</v>
-      </c>
-      <c r="G55" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -24574,7 +24556,7 @@
         <v>423</v>
       </c>
       <c r="F56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G56" t="s">
         <v>66</v>
@@ -24597,7 +24579,7 @@
         <v>424</v>
       </c>
       <c r="F57" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -24620,10 +24602,10 @@
         <v>424</v>
       </c>
       <c r="F58" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G58" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -24643,10 +24625,10 @@
         <v>424</v>
       </c>
       <c r="F59" t="s">
+        <v>694</v>
+      </c>
+      <c r="G59" t="s">
         <v>695</v>
-      </c>
-      <c r="G59" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -24666,10 +24648,10 @@
         <v>424</v>
       </c>
       <c r="F60" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G60" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -24689,10 +24671,10 @@
         <v>425</v>
       </c>
       <c r="F61" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G61" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -24712,10 +24694,10 @@
         <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G62" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -24735,7 +24717,7 @@
         <v>427</v>
       </c>
       <c r="F63" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G63" t="s">
         <v>66</v>
@@ -24758,7 +24740,7 @@
         <v>428</v>
       </c>
       <c r="F64" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G64" t="s">
         <v>141</v>
@@ -24781,7 +24763,7 @@
         <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G65" t="s">
         <v>655</v>
@@ -24804,7 +24786,7 @@
         <v>428</v>
       </c>
       <c r="F66" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G66" t="s">
         <v>656</v>
@@ -24827,7 +24809,7 @@
         <v>430</v>
       </c>
       <c r="F67" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G67" t="s">
         <v>92</v>
@@ -24850,10 +24832,10 @@
         <v>430</v>
       </c>
       <c r="F68" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G68" t="s">
-        <v>702</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -24873,7 +24855,7 @@
         <v>434</v>
       </c>
       <c r="F69" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -24896,7 +24878,7 @@
         <v>434</v>
       </c>
       <c r="F70" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G70" t="s">
         <v>141</v>
@@ -24919,7 +24901,7 @@
         <v>435</v>
       </c>
       <c r="F71" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G71" t="s">
         <v>66</v>
@@ -24942,7 +24924,7 @@
         <v>436</v>
       </c>
       <c r="F72" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G72" t="s">
         <v>656</v>
@@ -24965,7 +24947,7 @@
         <v>436</v>
       </c>
       <c r="F73" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G73" t="s">
         <v>655</v>
@@ -24988,10 +24970,10 @@
         <v>438</v>
       </c>
       <c r="F74" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G74" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -25011,7 +24993,7 @@
         <v>438</v>
       </c>
       <c r="F75" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G75" t="s">
         <v>651</v>
@@ -25034,7 +25016,7 @@
         <v>438</v>
       </c>
       <c r="F76" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G76" t="s">
         <v>107</v>
@@ -25057,7 +25039,7 @@
         <v>438</v>
       </c>
       <c r="F77" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G77" t="s">
         <v>66</v>
@@ -25080,10 +25062,10 @@
         <v>439</v>
       </c>
       <c r="F78" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G78" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -25103,10 +25085,10 @@
         <v>439</v>
       </c>
       <c r="F79" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G79" t="s">
-        <v>707</v>
+        <v>841</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -25126,7 +25108,7 @@
         <v>440</v>
       </c>
       <c r="F80" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G80" t="s">
         <v>651</v>
@@ -25149,7 +25131,7 @@
         <v>443</v>
       </c>
       <c r="F81" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -25172,7 +25154,7 @@
         <v>443</v>
       </c>
       <c r="F82" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G82" t="s">
         <v>141</v>
@@ -25195,10 +25177,10 @@
         <v>443</v>
       </c>
       <c r="F83" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G83" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -25218,7 +25200,7 @@
         <v>445</v>
       </c>
       <c r="F84" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G84" t="s">
         <v>120</v>
@@ -25241,10 +25223,10 @@
         <v>445</v>
       </c>
       <c r="F85" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G85" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -25264,7 +25246,7 @@
         <v>445</v>
       </c>
       <c r="F86" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G86" t="s">
         <v>115</v>
@@ -25287,7 +25269,7 @@
         <v>445</v>
       </c>
       <c r="F87" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G87" t="s">
         <v>116</v>
@@ -25310,7 +25292,7 @@
         <v>445</v>
       </c>
       <c r="F88" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -25333,7 +25315,7 @@
         <v>445</v>
       </c>
       <c r="F89" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G89" t="s">
         <v>118</v>
@@ -25356,7 +25338,7 @@
         <v>445</v>
       </c>
       <c r="F90" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G90" t="s">
         <v>119</v>
@@ -25379,10 +25361,10 @@
         <v>446</v>
       </c>
       <c r="F91" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G91" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -25402,10 +25384,10 @@
         <v>446</v>
       </c>
       <c r="F92" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G92" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -25425,10 +25407,10 @@
         <v>446</v>
       </c>
       <c r="F93" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G93" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -25448,10 +25430,10 @@
         <v>449</v>
       </c>
       <c r="F94" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G94" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -25471,7 +25453,7 @@
         <v>449</v>
       </c>
       <c r="F95" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G95" t="s">
         <v>239</v>
@@ -25494,10 +25476,10 @@
         <v>449</v>
       </c>
       <c r="F96" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G96" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -25517,10 +25499,10 @@
         <v>450</v>
       </c>
       <c r="F97" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G97" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -25540,7 +25522,7 @@
         <v>450</v>
       </c>
       <c r="F98" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G98" t="s">
         <v>239</v>
@@ -25563,7 +25545,7 @@
         <v>450</v>
       </c>
       <c r="F99" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G99" t="s">
         <v>655</v>
@@ -25586,7 +25568,7 @@
         <v>450</v>
       </c>
       <c r="F100" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G100" t="s">
         <v>656</v>
@@ -25609,7 +25591,7 @@
         <v>452</v>
       </c>
       <c r="F101" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G101" t="s">
         <v>651</v>
@@ -25632,10 +25614,10 @@
         <v>452</v>
       </c>
       <c r="F102" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G102" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -25655,7 +25637,7 @@
         <v>453</v>
       </c>
       <c r="F103" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G103" t="s">
         <v>13</v>
@@ -25678,7 +25660,7 @@
         <v>453</v>
       </c>
       <c r="F104" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -25701,7 +25683,7 @@
         <v>453</v>
       </c>
       <c r="F105" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
@@ -25724,10 +25706,10 @@
         <v>453</v>
       </c>
       <c r="F106" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G106" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -25747,10 +25729,10 @@
         <v>453</v>
       </c>
       <c r="F107" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G107" t="s">
-        <v>707</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -25770,7 +25752,7 @@
         <v>455</v>
       </c>
       <c r="F108" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G108" t="s">
         <v>66</v>
@@ -25793,7 +25775,7 @@
         <v>456</v>
       </c>
       <c r="F109" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -25816,10 +25798,10 @@
         <v>459</v>
       </c>
       <c r="F110" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G110" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -25839,10 +25821,10 @@
         <v>460</v>
       </c>
       <c r="F111" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G111" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -25862,10 +25844,10 @@
         <v>460</v>
       </c>
       <c r="F112" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G112" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -25885,7 +25867,7 @@
         <v>460</v>
       </c>
       <c r="F113" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G113" t="s">
         <v>656</v>
@@ -25908,7 +25890,7 @@
         <v>462</v>
       </c>
       <c r="F114" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G114" t="s">
         <v>651</v>
@@ -25931,7 +25913,7 @@
         <v>463</v>
       </c>
       <c r="F115" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G115" t="s">
         <v>655</v>
@@ -25954,7 +25936,7 @@
         <v>463</v>
       </c>
       <c r="F116" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G116" t="s">
         <v>656</v>
@@ -25977,7 +25959,7 @@
         <v>466</v>
       </c>
       <c r="F117" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G117" t="s">
         <v>655</v>
@@ -26000,7 +25982,7 @@
         <v>466</v>
       </c>
       <c r="F118" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G118" t="s">
         <v>656</v>
@@ -26023,10 +26005,10 @@
         <v>466</v>
       </c>
       <c r="F119" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G119" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -26046,7 +26028,7 @@
         <v>469</v>
       </c>
       <c r="F120" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G120" t="s">
         <v>655</v>
@@ -26069,7 +26051,7 @@
         <v>469</v>
       </c>
       <c r="F121" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G121" t="s">
         <v>656</v>
@@ -26092,7 +26074,7 @@
         <v>471</v>
       </c>
       <c r="F122" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G122" t="s">
         <v>651</v>
@@ -26115,7 +26097,7 @@
         <v>472</v>
       </c>
       <c r="F123" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G123" t="s">
         <v>651</v>
@@ -26138,10 +26120,10 @@
         <v>472</v>
       </c>
       <c r="F124" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G124" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -26161,7 +26143,7 @@
         <v>473</v>
       </c>
       <c r="F125" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G125" t="s">
         <v>66</v>
@@ -26184,7 +26166,7 @@
         <v>474</v>
       </c>
       <c r="F126" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
@@ -26207,10 +26189,10 @@
         <v>474</v>
       </c>
       <c r="F127" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G127" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -26230,7 +26212,7 @@
         <v>476</v>
       </c>
       <c r="F128" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G128" t="s">
         <v>66</v>
@@ -26253,10 +26235,10 @@
         <v>479</v>
       </c>
       <c r="F129" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G129" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -26276,10 +26258,10 @@
         <v>480</v>
       </c>
       <c r="F130" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G130" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -26299,10 +26281,10 @@
         <v>480</v>
       </c>
       <c r="F131" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G131" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -26322,7 +26304,7 @@
         <v>482</v>
       </c>
       <c r="F132" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G132" t="s">
         <v>667</v>
@@ -26345,7 +26327,7 @@
         <v>483</v>
       </c>
       <c r="F133" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G133" t="s">
         <v>141</v>
@@ -26368,7 +26350,7 @@
         <v>485</v>
       </c>
       <c r="F134" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G134" t="s">
         <v>667</v>
@@ -26391,7 +26373,7 @@
         <v>486</v>
       </c>
       <c r="F135" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G135" t="s">
         <v>141</v>
@@ -26414,7 +26396,7 @@
         <v>488</v>
       </c>
       <c r="F136" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G136" t="s">
         <v>667</v>
@@ -26437,7 +26419,7 @@
         <v>489</v>
       </c>
       <c r="F137" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G137" t="s">
         <v>141</v>
@@ -26460,7 +26442,7 @@
         <v>491</v>
       </c>
       <c r="F138" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G138" t="s">
         <v>667</v>
@@ -26483,7 +26465,7 @@
         <v>492</v>
       </c>
       <c r="F139" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G139" t="s">
         <v>141</v>
@@ -26506,7 +26488,7 @@
         <v>482</v>
       </c>
       <c r="F140" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G140" t="s">
         <v>667</v>
@@ -26529,7 +26511,7 @@
         <v>494</v>
       </c>
       <c r="F141" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G141" t="s">
         <v>141</v>
@@ -26552,7 +26534,7 @@
         <v>496</v>
       </c>
       <c r="F142" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G142" t="s">
         <v>667</v>
@@ -26575,10 +26557,10 @@
         <v>496</v>
       </c>
       <c r="F143" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G143" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -26598,10 +26580,10 @@
         <v>496</v>
       </c>
       <c r="F144" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G144" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -26621,7 +26603,7 @@
         <v>497</v>
       </c>
       <c r="F145" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="G145" t="s">
         <v>667</v>
@@ -26644,10 +26626,10 @@
         <v>497</v>
       </c>
       <c r="F146" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="G146" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -26667,10 +26649,10 @@
         <v>497</v>
       </c>
       <c r="F147" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="G147" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -26690,7 +26672,7 @@
         <v>498</v>
       </c>
       <c r="F148" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G148" t="s">
         <v>141</v>
@@ -26713,7 +26695,7 @@
         <v>482</v>
       </c>
       <c r="F149" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G149" t="s">
         <v>667</v>
@@ -26736,7 +26718,7 @@
         <v>500</v>
       </c>
       <c r="F150" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G150" t="s">
         <v>141</v>
@@ -26759,7 +26741,7 @@
         <v>503</v>
       </c>
       <c r="F151" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G151" t="s">
         <v>656</v>
@@ -26782,7 +26764,7 @@
         <v>503</v>
       </c>
       <c r="F152" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G152" t="s">
         <v>655</v>
@@ -26805,7 +26787,7 @@
         <v>503</v>
       </c>
       <c r="F153" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G153" t="s">
         <v>92</v>
@@ -26828,10 +26810,10 @@
         <v>503</v>
       </c>
       <c r="F154" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G154" t="s">
-        <v>702</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -26851,7 +26833,7 @@
         <v>505</v>
       </c>
       <c r="F155" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -26874,7 +26856,7 @@
         <v>506</v>
       </c>
       <c r="F156" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G156" t="s">
         <v>141</v>
@@ -26897,7 +26879,7 @@
         <v>506</v>
       </c>
       <c r="F157" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G157" t="s">
         <v>656</v>
@@ -26920,7 +26902,7 @@
         <v>506</v>
       </c>
       <c r="F158" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G158" t="s">
         <v>655</v>
@@ -26943,7 +26925,7 @@
         <v>510</v>
       </c>
       <c r="F159" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G159" t="s">
         <v>66</v>
@@ -26966,10 +26948,10 @@
         <v>511</v>
       </c>
       <c r="F160" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G160" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -26989,7 +26971,7 @@
         <v>512</v>
       </c>
       <c r="F161" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G161" t="s">
         <v>655</v>
@@ -27012,7 +26994,7 @@
         <v>512</v>
       </c>
       <c r="F162" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G162" t="s">
         <v>656</v>
@@ -27035,7 +27017,7 @@
         <v>514</v>
       </c>
       <c r="F163" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G163" t="s">
         <v>66</v>
@@ -27058,7 +27040,7 @@
         <v>515</v>
       </c>
       <c r="F164" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G164" t="s">
         <v>655</v>
@@ -27081,7 +27063,7 @@
         <v>515</v>
       </c>
       <c r="F165" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G165" t="s">
         <v>656</v>
@@ -27104,7 +27086,7 @@
         <v>517</v>
       </c>
       <c r="F166" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G166" t="s">
         <v>66</v>
@@ -27127,7 +27109,7 @@
         <v>517</v>
       </c>
       <c r="F167" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G167" t="s">
         <v>651</v>
@@ -27150,10 +27132,10 @@
         <v>518</v>
       </c>
       <c r="F168" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G168" t="s">
-        <v>707</v>
+        <v>841</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -27173,7 +27155,7 @@
         <v>520</v>
       </c>
       <c r="F169" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G169" t="s">
         <v>66</v>
@@ -27196,7 +27178,7 @@
         <v>522</v>
       </c>
       <c r="F170" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G170" t="s">
         <v>655</v>
@@ -27219,7 +27201,7 @@
         <v>522</v>
       </c>
       <c r="F171" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G171" t="s">
         <v>656</v>
@@ -27242,7 +27224,7 @@
         <v>524</v>
       </c>
       <c r="F172" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G172" t="s">
         <v>120</v>
@@ -27265,7 +27247,7 @@
         <v>525</v>
       </c>
       <c r="F173" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G173" t="s">
         <v>50</v>
@@ -27288,7 +27270,7 @@
         <v>525</v>
       </c>
       <c r="F174" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G174" t="s">
         <v>141</v>
@@ -27311,7 +27293,7 @@
         <v>525</v>
       </c>
       <c r="F175" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G175" t="s">
         <v>92</v>
@@ -27334,7 +27316,7 @@
         <v>525</v>
       </c>
       <c r="F176" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G176" t="s">
         <v>508</v>
@@ -27357,7 +27339,7 @@
         <v>525</v>
       </c>
       <c r="F177" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G177" t="s">
         <v>120</v>
@@ -27380,7 +27362,7 @@
         <v>527</v>
       </c>
       <c r="F178" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G178" t="s">
         <v>66</v>
@@ -27403,10 +27385,10 @@
         <v>528</v>
       </c>
       <c r="F179" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G179" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -27426,10 +27408,10 @@
         <v>528</v>
       </c>
       <c r="F180" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G180" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -27449,10 +27431,10 @@
         <v>528</v>
       </c>
       <c r="F181" t="s">
+        <v>750</v>
+      </c>
+      <c r="G181" t="s">
         <v>753</v>
-      </c>
-      <c r="G181" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -27472,10 +27454,10 @@
         <v>528</v>
       </c>
       <c r="F182" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G182" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -27495,7 +27477,7 @@
         <v>530</v>
       </c>
       <c r="F183" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G183" t="s">
         <v>66</v>
@@ -27518,7 +27500,7 @@
         <v>531</v>
       </c>
       <c r="F184" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G184" t="s">
         <v>66</v>
@@ -27541,10 +27523,10 @@
         <v>531</v>
       </c>
       <c r="F185" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G185" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -27564,7 +27546,7 @@
         <v>532</v>
       </c>
       <c r="F186" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G186" t="s">
         <v>655</v>
@@ -27587,7 +27569,7 @@
         <v>532</v>
       </c>
       <c r="F187" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G187" t="s">
         <v>66</v>
@@ -27610,10 +27592,10 @@
         <v>532</v>
       </c>
       <c r="F188" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G188" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -27633,7 +27615,7 @@
         <v>534</v>
       </c>
       <c r="F189" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G189" t="s">
         <v>44</v>
@@ -27656,7 +27638,7 @@
         <v>535</v>
       </c>
       <c r="F190" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="G190" t="s">
         <v>44</v>
@@ -27679,7 +27661,7 @@
         <v>535</v>
       </c>
       <c r="F191" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="G191" t="s">
         <v>239</v>
@@ -27702,7 +27684,7 @@
         <v>536</v>
       </c>
       <c r="F192" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G192" t="s">
         <v>66</v>
@@ -27725,7 +27707,7 @@
         <v>536</v>
       </c>
       <c r="F193" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G193" t="s">
         <v>92</v>
@@ -27748,7 +27730,7 @@
         <v>536</v>
       </c>
       <c r="F194" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G194" t="s">
         <v>508</v>
@@ -27771,10 +27753,10 @@
         <v>538</v>
       </c>
       <c r="F195" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G195" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -27794,10 +27776,10 @@
         <v>538</v>
       </c>
       <c r="F196" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G196" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -27817,10 +27799,10 @@
         <v>539</v>
       </c>
       <c r="F197" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G197" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -27840,10 +27822,10 @@
         <v>542</v>
       </c>
       <c r="F198" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G198" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -27863,7 +27845,7 @@
         <v>544</v>
       </c>
       <c r="F199" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G199" t="s">
         <v>651</v>
@@ -27886,7 +27868,7 @@
         <v>546</v>
       </c>
       <c r="F200" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G200" t="s">
         <v>66</v>
@@ -27909,7 +27891,7 @@
         <v>547</v>
       </c>
       <c r="F201" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G201" t="s">
         <v>655</v>
@@ -27932,7 +27914,7 @@
         <v>547</v>
       </c>
       <c r="F202" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G202" t="s">
         <v>656</v>
@@ -27955,7 +27937,7 @@
         <v>549</v>
       </c>
       <c r="F203" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G203" t="s">
         <v>141</v>
@@ -27978,7 +27960,7 @@
         <v>550</v>
       </c>
       <c r="F204" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G204" t="s">
         <v>50</v>
@@ -28001,7 +27983,7 @@
         <v>551</v>
       </c>
       <c r="F205" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G205" t="s">
         <v>92</v>
@@ -28024,7 +28006,7 @@
         <v>551</v>
       </c>
       <c r="F206" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G206" t="s">
         <v>508</v>
@@ -28047,7 +28029,7 @@
         <v>551</v>
       </c>
       <c r="F207" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G207" t="s">
         <v>651</v>
@@ -28070,7 +28052,7 @@
         <v>551</v>
       </c>
       <c r="F208" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G208" t="s">
         <v>655</v>
@@ -28093,7 +28075,7 @@
         <v>551</v>
       </c>
       <c r="F209" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G209" t="s">
         <v>656</v>
@@ -28116,7 +28098,7 @@
         <v>552</v>
       </c>
       <c r="F210" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G210" t="s">
         <v>50</v>
@@ -28139,7 +28121,7 @@
         <v>553</v>
       </c>
       <c r="F211" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G211" t="s">
         <v>92</v>
@@ -28162,7 +28144,7 @@
         <v>553</v>
       </c>
       <c r="F212" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G212" t="s">
         <v>508</v>
@@ -28185,7 +28167,7 @@
         <v>553</v>
       </c>
       <c r="F213" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G213" t="s">
         <v>651</v>
@@ -28208,7 +28190,7 @@
         <v>553</v>
       </c>
       <c r="F214" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G214" t="s">
         <v>655</v>
@@ -28231,7 +28213,7 @@
         <v>553</v>
       </c>
       <c r="F215" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G215" t="s">
         <v>656</v>
@@ -28254,10 +28236,10 @@
         <v>556</v>
       </c>
       <c r="F216" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G216" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -28277,7 +28259,7 @@
         <v>556</v>
       </c>
       <c r="F217" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G217" t="s">
         <v>656</v>
@@ -28300,7 +28282,7 @@
         <v>556</v>
       </c>
       <c r="F218" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G218" t="s">
         <v>655</v>
@@ -28323,10 +28305,10 @@
         <v>558</v>
       </c>
       <c r="F219" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G219" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -28346,10 +28328,10 @@
         <v>558</v>
       </c>
       <c r="F220" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G220" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -28369,7 +28351,7 @@
         <v>559</v>
       </c>
       <c r="F221" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G221" t="s">
         <v>141</v>
@@ -28392,10 +28374,10 @@
         <v>560</v>
       </c>
       <c r="F222" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G222" t="s">
-        <v>777</v>
+        <v>842</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -28415,10 +28397,10 @@
         <v>560</v>
       </c>
       <c r="F223" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G223" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -28438,10 +28420,10 @@
         <v>560</v>
       </c>
       <c r="F224" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G224" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -28461,7 +28443,7 @@
         <v>561</v>
       </c>
       <c r="F225" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G225" t="s">
         <v>667</v>
@@ -28484,10 +28466,10 @@
         <v>561</v>
       </c>
       <c r="F226" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G226" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -28507,10 +28489,10 @@
         <v>561</v>
       </c>
       <c r="F227" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G227" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -28530,10 +28512,10 @@
         <v>561</v>
       </c>
       <c r="F228" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G228" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -28553,10 +28535,10 @@
         <v>562</v>
       </c>
       <c r="F229" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G229" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -28576,10 +28558,10 @@
         <v>563</v>
       </c>
       <c r="F230" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G230" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -28599,7 +28581,7 @@
         <v>566</v>
       </c>
       <c r="F231" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G231" t="s">
         <v>10</v>
@@ -28622,7 +28604,7 @@
         <v>566</v>
       </c>
       <c r="F232" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G232" t="s">
         <v>11</v>
@@ -28645,7 +28627,7 @@
         <v>566</v>
       </c>
       <c r="F233" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G233" t="s">
         <v>13</v>
@@ -28668,7 +28650,7 @@
         <v>571</v>
       </c>
       <c r="F234" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G234" t="s">
         <v>10</v>
@@ -28691,7 +28673,7 @@
         <v>571</v>
       </c>
       <c r="F235" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
@@ -28714,7 +28696,7 @@
         <v>571</v>
       </c>
       <c r="F236" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G236" t="s">
         <v>13</v>
@@ -28737,7 +28719,7 @@
         <v>573</v>
       </c>
       <c r="F237" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G237" t="s">
         <v>667</v>
@@ -28760,10 +28742,10 @@
         <v>575</v>
       </c>
       <c r="F238" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G238" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -28783,10 +28765,10 @@
         <v>575</v>
       </c>
       <c r="F239" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G239" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -28806,10 +28788,10 @@
         <v>575</v>
       </c>
       <c r="F240" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G240" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -28829,7 +28811,7 @@
         <v>575</v>
       </c>
       <c r="F241" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G241" t="s">
         <v>667</v>
@@ -28852,7 +28834,7 @@
         <v>575</v>
       </c>
       <c r="F242" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G242" t="s">
         <v>10</v>
@@ -28875,7 +28857,7 @@
         <v>575</v>
       </c>
       <c r="F243" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G243" t="s">
         <v>11</v>
@@ -28898,7 +28880,7 @@
         <v>575</v>
       </c>
       <c r="F244" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G244" t="s">
         <v>50</v>
@@ -28921,10 +28903,10 @@
         <v>577</v>
       </c>
       <c r="F245" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="G245" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -28944,7 +28926,7 @@
         <v>571</v>
       </c>
       <c r="F246" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G246" t="s">
         <v>10</v>
@@ -28967,7 +28949,7 @@
         <v>571</v>
       </c>
       <c r="F247" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G247" t="s">
         <v>11</v>
@@ -28990,7 +28972,7 @@
         <v>571</v>
       </c>
       <c r="F248" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G248" t="s">
         <v>13</v>
@@ -29013,7 +28995,7 @@
         <v>582</v>
       </c>
       <c r="F249" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G249" t="s">
         <v>36</v>
@@ -29036,10 +29018,10 @@
         <v>584</v>
       </c>
       <c r="F250" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G250" t="s">
-        <v>783</v>
+        <v>843</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -29059,7 +29041,7 @@
         <v>586</v>
       </c>
       <c r="F251" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G251" t="s">
         <v>667</v>
@@ -29082,7 +29064,7 @@
         <v>586</v>
       </c>
       <c r="F252" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G252" t="s">
         <v>141</v>
@@ -29105,10 +29087,10 @@
         <v>587</v>
       </c>
       <c r="F253" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G253" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -29128,10 +29110,10 @@
         <v>587</v>
       </c>
       <c r="F254" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G254" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -29151,10 +29133,10 @@
         <v>589</v>
       </c>
       <c r="F255" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G255" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -29174,10 +29156,10 @@
         <v>589</v>
       </c>
       <c r="F256" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G256" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -29197,10 +29179,10 @@
         <v>589</v>
       </c>
       <c r="F257" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G257" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -29220,10 +29202,10 @@
         <v>589</v>
       </c>
       <c r="F258" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G258" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -29243,10 +29225,10 @@
         <v>590</v>
       </c>
       <c r="F259" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G259" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -29266,10 +29248,10 @@
         <v>590</v>
       </c>
       <c r="F260" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G260" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -29289,10 +29271,10 @@
         <v>590</v>
       </c>
       <c r="F261" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G261" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -29312,10 +29294,10 @@
         <v>590</v>
       </c>
       <c r="F262" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G262" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -29335,10 +29317,10 @@
         <v>591</v>
       </c>
       <c r="F263" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G263" t="s">
-        <v>796</v>
+        <v>845</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -29358,7 +29340,7 @@
         <v>591</v>
       </c>
       <c r="F264" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G264" t="s">
         <v>651</v>
@@ -29381,10 +29363,10 @@
         <v>591</v>
       </c>
       <c r="F265" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G265" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -29404,10 +29386,10 @@
         <v>591</v>
       </c>
       <c r="F266" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G266" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -29427,10 +29409,10 @@
         <v>593</v>
       </c>
       <c r="F267" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G267" t="s">
-        <v>800</v>
+        <v>845</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -29450,7 +29432,7 @@
         <v>593</v>
       </c>
       <c r="F268" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G268" t="s">
         <v>651</v>
@@ -29473,10 +29455,10 @@
         <v>593</v>
       </c>
       <c r="F269" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G269" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -29496,10 +29478,10 @@
         <v>593</v>
       </c>
       <c r="F270" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G270" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -29519,10 +29501,10 @@
         <v>594</v>
       </c>
       <c r="F271" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="G271" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -29542,10 +29524,10 @@
         <v>594</v>
       </c>
       <c r="F272" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="G272" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -29565,56 +29547,56 @@
         <v>594</v>
       </c>
       <c r="F273" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="G273" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="D274" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E274" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="F274" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="G274" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="D275" t="s">
         <v>15</v>
       </c>
       <c r="E275" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="F275" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="G275" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -29634,10 +29616,10 @@
         <v>607</v>
       </c>
       <c r="F276" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="G276" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -29657,15 +29639,15 @@
         <v>607</v>
       </c>
       <c r="F277" t="s">
+        <v>829</v>
+      </c>
+      <c r="G277" t="s">
         <v>846</v>
-      </c>
-      <c r="G277" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
@@ -29674,21 +29656,21 @@
         <v>341</v>
       </c>
       <c r="D278" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E278" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F278" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="G278" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
@@ -29697,16 +29679,16 @@
         <v>341</v>
       </c>
       <c r="D279" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E279" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F279" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="G279" t="s">
-        <v>848</v>
+        <v>798</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -29726,10 +29708,10 @@
         <v>609</v>
       </c>
       <c r="F280" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="G280" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -29749,10 +29731,10 @@
         <v>609</v>
       </c>
       <c r="F281" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="G281" t="s">
-        <v>812</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -29772,10 +29754,10 @@
         <v>609</v>
       </c>
       <c r="F282" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="G282" t="s">
-        <v>813</v>
+        <v>50</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -29795,10 +29777,10 @@
         <v>609</v>
       </c>
       <c r="F283" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="G283" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -29818,61 +29800,61 @@
         <v>609</v>
       </c>
       <c r="F284" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="G284" t="s">
-        <v>50</v>
+        <v>830</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D285" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E285" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F285" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="G285" t="s">
-        <v>12</v>
+        <v>833</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D286" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E286" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F286" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="G286" t="s">
-        <v>847</v>
+        <v>66</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -29881,21 +29863,21 @@
         <v>348</v>
       </c>
       <c r="D287" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E287" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F287" t="s">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="G287" t="s">
-        <v>851</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -29904,16 +29886,16 @@
         <v>348</v>
       </c>
       <c r="D288" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E288" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F288" t="s">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="G288" t="s">
-        <v>66</v>
+        <v>801</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -29933,56 +29915,56 @@
         <v>613</v>
       </c>
       <c r="F289" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="G289" t="s">
-        <v>12</v>
+        <v>802</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D290" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E290" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F290" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G290" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D291" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E291" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F291" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G291" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -30002,56 +29984,56 @@
         <v>615</v>
       </c>
       <c r="F292" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="G292" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
       </c>
       <c r="C293" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D293" t="s">
         <v>8</v>
       </c>
       <c r="E293" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F293" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="G293" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D294" t="s">
         <v>8</v>
       </c>
       <c r="E294" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F294" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="G294" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -30071,56 +30053,56 @@
         <v>616</v>
       </c>
       <c r="F295" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="G295" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
         <v>8</v>
       </c>
       <c r="E296" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F296" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="G296" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D297" t="s">
         <v>8</v>
       </c>
       <c r="E297" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F297" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="G297" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -30140,61 +30122,61 @@
         <v>617</v>
       </c>
       <c r="F298" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="G298" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D299" t="s">
         <v>8</v>
       </c>
       <c r="E299" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F299" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="G299" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D300" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E300" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F300" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="G300" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -30203,85 +30185,85 @@
         <v>358</v>
       </c>
       <c r="D301" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E301" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F301" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G301" t="s">
-        <v>853</v>
+        <v>677</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D302" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E302" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F302" t="s">
-        <v>854</v>
+        <v>698</v>
       </c>
       <c r="G302" t="s">
-        <v>823</v>
+        <v>66</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D303" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E303" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F303" t="s">
-        <v>854</v>
+        <v>808</v>
       </c>
       <c r="G303" t="s">
-        <v>678</v>
+        <v>809</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D304" t="s">
         <v>8</v>
       </c>
       <c r="E304" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F304" t="s">
-        <v>699</v>
+        <v>808</v>
       </c>
       <c r="G304" t="s">
-        <v>66</v>
+        <v>810</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -30301,56 +30283,56 @@
         <v>627</v>
       </c>
       <c r="F305" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G305" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D306" t="s">
         <v>8</v>
       </c>
       <c r="E306" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F306" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G306" t="s">
-        <v>826</v>
+        <v>372</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D307" t="s">
         <v>8</v>
       </c>
       <c r="E307" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F307" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G307" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -30370,15 +30352,15 @@
         <v>628</v>
       </c>
       <c r="F308" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G308" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -30387,21 +30369,21 @@
         <v>368</v>
       </c>
       <c r="D309" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E309" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F309" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="G309" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -30410,67 +30392,67 @@
         <v>368</v>
       </c>
       <c r="D310" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E310" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F310" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="G310" t="s">
-        <v>201</v>
+        <v>813</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D311" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E311" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F311" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="G311" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D312" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E312" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F312" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="G312" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -30479,21 +30461,21 @@
         <v>374</v>
       </c>
       <c r="D313" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E313" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F313" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="G313" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -30502,21 +30484,21 @@
         <v>374</v>
       </c>
       <c r="D314" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E314" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F314" t="s">
-        <v>855</v>
+        <v>818</v>
       </c>
       <c r="G314" t="s">
-        <v>856</v>
+        <v>35</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -30525,62 +30507,62 @@
         <v>374</v>
       </c>
       <c r="D315" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E315" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F315" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="G315" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D316" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E316" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F316" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="G316" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D317" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E317" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F317" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="G317" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -30600,10 +30582,10 @@
         <v>637</v>
       </c>
       <c r="F318" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="G318" t="s">
-        <v>11</v>
+        <v>840</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -30623,10 +30605,10 @@
         <v>637</v>
       </c>
       <c r="F319" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="G319" t="s">
-        <v>835</v>
+        <v>655</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -30646,10 +30628,10 @@
         <v>637</v>
       </c>
       <c r="F320" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="G320" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -30669,56 +30651,10 @@
         <v>637</v>
       </c>
       <c r="F321" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="G321" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>383</v>
-      </c>
-      <c r="B322" t="s">
-        <v>7</v>
-      </c>
-      <c r="C322" t="s">
-        <v>380</v>
-      </c>
-      <c r="D322" t="s">
-        <v>15</v>
-      </c>
-      <c r="E322" t="s">
-        <v>637</v>
-      </c>
-      <c r="F322" t="s">
-        <v>857</v>
-      </c>
-      <c r="G322" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>383</v>
-      </c>
-      <c r="B323" t="s">
-        <v>7</v>
-      </c>
-      <c r="C323" t="s">
-        <v>380</v>
-      </c>
-      <c r="D323" t="s">
-        <v>15</v>
-      </c>
-      <c r="E323" t="s">
-        <v>637</v>
-      </c>
-      <c r="F323" t="s">
-        <v>857</v>
-      </c>
-      <c r="G323" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
